--- a/cpns8rev3_laravel/cpns/public/soal/example.xlsx
+++ b/cpns8rev3_laravel/cpns/public/soal/example.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="27">
   <si>
     <t>Perhatian!!!</t>
   </si>
@@ -82,12 +82,6 @@
   </si>
   <si>
     <t>pembahasan</t>
-  </si>
-  <si>
-    <t>Pembahasan</t>
-  </si>
-  <si>
-    <t>Skor</t>
   </si>
   <si>
     <t>latihan</t>
@@ -312,7 +306,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -359,20 +353,24 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -675,10 +673,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M17"/>
+  <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:M13"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -699,104 +697,104 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="18"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="22"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
-      <c r="M6" s="18"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="22"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D8" s="8" t="s">
@@ -828,7 +826,7 @@
         <v>9</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
@@ -840,21 +838,21 @@
       </c>
     </row>
     <row r="13" spans="1:13" ht="103.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="20"/>
-      <c r="L13" s="20"/>
-      <c r="M13" s="20"/>
+      <c r="A13" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="19"/>
     </row>
     <row r="14" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="13" t="s">
@@ -882,7 +880,7 @@
         <v>19</v>
       </c>
       <c r="I14" s="15" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J14" s="13" t="s">
         <v>20</v>
@@ -891,10 +889,10 @@
         <v>21</v>
       </c>
       <c r="L14" s="13" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M14" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -902,10 +900,10 @@
         <v>2</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D15" s="12">
         <v>3</v>
@@ -931,7 +929,7 @@
         <v>5</v>
       </c>
       <c r="M15" s="12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
@@ -960,7 +958,7 @@
         <v>19</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J17" s="4" t="s">
         <v>20</v>
@@ -969,11 +967,47 @@
         <v>21</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M17" s="11" t="s">
-        <v>22</v>
-      </c>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M18" s="17"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M19" s="17"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M20" s="16"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M21" s="16"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M22" s="16"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M23" s="16"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M24" s="16"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M25" s="16"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M26" s="16"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M27" s="16"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M28" s="16"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M29" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="6">
